--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail1 Features.xlsx
@@ -3470,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.482087553059211</v>
+        <v>1.458386241573923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.328917851464406</v>
@@ -3559,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.48509167522225</v>
+        <v>1.467671993810703</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.395241900020615</v>
@@ -3648,7 +3648,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507020732853535</v>
+        <v>1.485828605753605</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.55951062457877</v>
@@ -3737,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507833571618134</v>
+        <v>1.488353445359579</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.601969067548775</v>
@@ -3826,7 +3826,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520688866368822</v>
+        <v>1.494741461870391</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.685282986263384</v>
@@ -3915,7 +3915,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.512858511755628</v>
+        <v>1.486434757898821</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.823088745396759</v>
@@ -4004,7 +4004,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.516950350136401</v>
+        <v>1.490323759409723</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.633091346507922</v>
@@ -4093,7 +4093,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.520763147940655</v>
+        <v>1.48911490261375</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.796033643929068</v>
@@ -4182,7 +4182,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511252567009588</v>
+        <v>1.480405243655061</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.812158946707311</v>
@@ -4271,7 +4271,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.508112665768044</v>
+        <v>1.478394687899107</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.674336254944121</v>
@@ -4360,7 +4360,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.506334701496806</v>
+        <v>1.473154934946413</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.689645510281431</v>
@@ -4449,7 +4449,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513085816703405</v>
+        <v>1.477974605729656</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.793458129136515</v>
@@ -4538,7 +4538,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522023102978999</v>
+        <v>1.487021557056797</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.742858611659237</v>
@@ -4627,7 +4627,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523427114950348</v>
+        <v>1.485216127919048</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.706477927796153</v>
@@ -4716,7 +4716,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.518885583432286</v>
+        <v>1.482070908285618</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.685321354364282</v>
@@ -4805,7 +4805,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.501676024152253</v>
+        <v>1.465977932141218</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.544780144969673</v>
@@ -4894,7 +4894,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.506528496363755</v>
+        <v>1.466925727891397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.688328947942429</v>
@@ -4983,7 +4983,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.503099834552503</v>
+        <v>1.466111642822491</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.473659094148387</v>
@@ -5072,7 +5072,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490666749774404</v>
+        <v>1.456072021398822</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.592134818418231</v>
@@ -5161,7 +5161,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.468406722912721</v>
+        <v>1.446111964712077</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.461805363977342</v>
@@ -5250,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.473155601126562</v>
+        <v>1.443955943548962</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.647059794172808</v>
@@ -5339,7 +5339,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.454123036540059</v>
+        <v>1.429838448797257</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.777301712962688</v>
@@ -5428,7 +5428,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452663948908039</v>
+        <v>1.426755164523815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.819189066616443</v>
@@ -5517,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.453317315816471</v>
+        <v>1.432520794164576</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.525983049181577</v>
@@ -5606,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.454118296874219</v>
+        <v>1.432537456439882</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.614549142544348</v>
@@ -5695,7 +5695,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.454820259051305</v>
+        <v>1.439887188383181</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.613986617378942</v>
@@ -5784,7 +5784,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.448682412237743</v>
+        <v>1.434186533232516</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.788274733988264</v>
@@ -5873,7 +5873,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.466947669437854</v>
+        <v>1.451613395959364</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.804210971266585</v>
@@ -5962,7 +5962,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.469421014042799</v>
+        <v>1.451864683238796</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.756715070511362</v>
@@ -6051,7 +6051,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.461804385720721</v>
+        <v>1.445024233113726</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.638217269860892</v>
@@ -6140,7 +6140,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.449818906379813</v>
+        <v>1.443600668846567</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.717425885160382</v>
@@ -6229,7 +6229,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.443453954850085</v>
+        <v>1.433434152286503</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.865983784468704</v>
@@ -6318,7 +6318,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.423526196160852</v>
+        <v>1.418178805428235</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.618209985907219</v>
@@ -6407,7 +6407,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.436371079603144</v>
+        <v>1.430223228402557</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.641544497459027</v>
@@ -6496,7 +6496,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.439521711223145</v>
+        <v>1.433349269724918</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.553344511875173</v>
@@ -6585,7 +6585,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.457027915773909</v>
+        <v>1.447634490052731</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.842311051044324</v>
@@ -6674,7 +6674,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.474787517529863</v>
+        <v>1.455995130464485</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.698276151846643</v>
@@ -6763,7 +6763,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478856018185146</v>
+        <v>1.460696373409343</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.54630186969196</v>
@@ -6852,7 +6852,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.481992858537568</v>
+        <v>1.463435521531519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.716630006469535</v>
@@ -6941,7 +6941,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.489714750000507</v>
+        <v>1.471081287299675</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.6065632940485</v>
@@ -7030,7 +7030,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.498924187479772</v>
+        <v>1.476594676728215</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.811175827741872</v>
@@ -7119,7 +7119,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.50014689763483</v>
+        <v>1.478698804442476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.518687605464251</v>
@@ -7405,7 +7405,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.639192864081008</v>
+        <v>1.611301008541263</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.105539378072145</v>
@@ -7494,7 +7494,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.63230966907446</v>
+        <v>1.603533736669328</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.949432457770708</v>
@@ -7583,7 +7583,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624077435904232</v>
+        <v>1.590740373563365</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.017005293249353</v>
@@ -7672,7 +7672,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633168127121098</v>
+        <v>1.593141651572584</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.080500907120133</v>
@@ -7761,7 +7761,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.625652118522086</v>
+        <v>1.588870015207458</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.057922244327039</v>
@@ -7850,7 +7850,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629710564814996</v>
+        <v>1.587110667240063</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.440067278204699</v>
@@ -7939,7 +7939,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.621007820456539</v>
+        <v>1.577779693632516</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.988131565419212</v>
@@ -8028,7 +8028,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603538804079927</v>
+        <v>1.563589812528553</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.728018098639929</v>
@@ -8117,7 +8117,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.592542511873311</v>
+        <v>1.556719257669296</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.905503918728143</v>
@@ -8206,7 +8206,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.590823851690536</v>
+        <v>1.556514884879775</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.019449681265253</v>
@@ -8295,7 +8295,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587646023802218</v>
+        <v>1.55657968200536</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.994815856572482</v>
@@ -8384,7 +8384,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58810139141164</v>
+        <v>1.560790213776316</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.95309248721071</v>
@@ -8473,7 +8473,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597398054350816</v>
+        <v>1.569961506758582</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.840478286636656</v>
@@ -8562,7 +8562,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601125091705154</v>
+        <v>1.5745119087984</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.866624098097418</v>
@@ -8651,7 +8651,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60645979187505</v>
+        <v>1.577041885524683</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.626358424469732</v>
@@ -8740,7 +8740,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595737460037959</v>
+        <v>1.568618726675367</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.852347795489133</v>
@@ -8829,7 +8829,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609078278510467</v>
+        <v>1.584112438610658</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.109909590375319</v>
@@ -8918,7 +8918,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610265603672743</v>
+        <v>1.586894646381338</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.050710106149515</v>
@@ -9007,7 +9007,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616028783211133</v>
+        <v>1.591284709470139</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723260718635935</v>
@@ -9096,7 +9096,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.611460476428123</v>
+        <v>1.588409923006803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.981166011971832</v>
@@ -9185,7 +9185,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.610603316021398</v>
+        <v>1.59219506015879</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.8907356697621</v>
@@ -9274,7 +9274,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.611161402818803</v>
+        <v>1.595280136255075</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.001865973993716</v>
@@ -9363,7 +9363,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638740130502592</v>
+        <v>1.622998337452969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.454903573403356</v>
@@ -9452,7 +9452,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644623475031067</v>
+        <v>1.628401259946984</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.399568135328254</v>
@@ -9541,7 +9541,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.643309772097515</v>
+        <v>1.623722723613982</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.31451627917234</v>
@@ -9630,7 +9630,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65127377270051</v>
+        <v>1.626454075344244</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.340230792350053</v>
@@ -9719,7 +9719,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.642529874835802</v>
+        <v>1.613069760337923</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.426984987602557</v>
@@ -9808,7 +9808,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643637949468588</v>
+        <v>1.615809199838724</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.605580360373092</v>
@@ -9897,7 +9897,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.633617147589671</v>
+        <v>1.607180234536473</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.254372203565472</v>
@@ -9986,7 +9986,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.626816645145975</v>
+        <v>1.595060143463468</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.405977055125812</v>
@@ -10075,7 +10075,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629565262198428</v>
+        <v>1.5964037280515</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.435137849008945</v>
@@ -10164,7 +10164,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631066173692516</v>
+        <v>1.588943637627755</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.588616917755095</v>
@@ -10253,7 +10253,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634686783755935</v>
+        <v>1.596092221738398</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.202668117025607</v>
@@ -10342,7 +10342,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637526304293438</v>
+        <v>1.602664198221268</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.558055264571008</v>
@@ -10431,7 +10431,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.63596851911224</v>
+        <v>1.59926157177176</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.576544911525445</v>
@@ -10520,7 +10520,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.64024891276767</v>
+        <v>1.597969428811824</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.38100800501709</v>
@@ -10609,7 +10609,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.642033600083239</v>
+        <v>1.590596994241293</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.242380234720704</v>
@@ -10698,7 +10698,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.637404759652184</v>
+        <v>1.588464669878995</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.442160729250622</v>
@@ -10787,7 +10787,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.635850179174146</v>
+        <v>1.586482812813709</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.093421342655883</v>
@@ -10876,7 +10876,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644522552346598</v>
+        <v>1.592559258654271</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.323175656254351</v>
@@ -10965,7 +10965,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647254905384168</v>
+        <v>1.595449921159739</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.517234314685407</v>
@@ -11054,7 +11054,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.650376472306224</v>
+        <v>1.602180671864647</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.491353550898678</v>
@@ -11340,7 +11340,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.622682768100969</v>
+        <v>1.569781887550056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.770173534995631</v>
@@ -11429,7 +11429,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.619549803059636</v>
+        <v>1.570475853877036</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.772738680433184</v>
@@ -11518,7 +11518,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.610592964183229</v>
+        <v>1.562160159012685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.772097268349614</v>
@@ -11607,7 +11607,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.602260711284361</v>
+        <v>1.55318587452067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.705407394107434</v>
@@ -11696,7 +11696,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.597660957293282</v>
+        <v>1.540329105871738</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.69301723372518</v>
@@ -11785,7 +11785,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599723063717122</v>
+        <v>1.540737660628384</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.625040904781205</v>
@@ -11874,7 +11874,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.599462451143629</v>
+        <v>1.538674406579613</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.491990285520998</v>
@@ -11963,7 +11963,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620526362807007</v>
+        <v>1.557825872517313</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.147552525413275</v>
@@ -12052,7 +12052,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613749476720944</v>
+        <v>1.548614798318595</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.537823105787462</v>
@@ -12141,7 +12141,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606531680490449</v>
+        <v>1.539905985015756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.600426066602254</v>
@@ -12230,7 +12230,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613743681852749</v>
+        <v>1.540256665649079</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.163903923361315</v>
@@ -12319,7 +12319,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.608968632194665</v>
+        <v>1.536759055582145</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.551088201179993</v>
@@ -12408,7 +12408,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609124729082273</v>
+        <v>1.53653655874246</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.262069926419939</v>
@@ -12497,7 +12497,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.603445357273804</v>
+        <v>1.530589496697749</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.39336639722967</v>
@@ -12586,7 +12586,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.583762571648456</v>
+        <v>1.5212819176703</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.574710838369951</v>
@@ -12675,7 +12675,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574400518285162</v>
+        <v>1.519463816622377</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.354982092871361</v>
@@ -12764,7 +12764,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570771136179255</v>
+        <v>1.515762143584285</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.588843548789109</v>
@@ -12853,7 +12853,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582178278822256</v>
+        <v>1.529720751277884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.013481806725433</v>
@@ -12942,7 +12942,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570258685017832</v>
+        <v>1.523416425415071</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.422076514004222</v>
@@ -13031,7 +13031,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.547778912761867</v>
+        <v>1.506675684036486</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.558603530627108</v>
@@ -13120,7 +13120,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544443566917358</v>
+        <v>1.501849739339252</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.56718107169351</v>
@@ -13209,7 +13209,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.533944373158753</v>
+        <v>1.498283147915669</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.533964086169459</v>
@@ -13298,7 +13298,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529024939052187</v>
+        <v>1.494872684740972</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.520097538413426</v>
@@ -13387,7 +13387,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.548299378292574</v>
+        <v>1.512000407037391</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.609515893859764</v>
@@ -13476,7 +13476,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54989163526287</v>
+        <v>1.50648285038724</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.531181932355116</v>
@@ -13565,7 +13565,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.549129897114523</v>
+        <v>1.510516817178581</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.533137316505266</v>
@@ -13654,7 +13654,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544800249519802</v>
+        <v>1.505537295371322</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.656689567102286</v>
@@ -13743,7 +13743,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.537701520973249</v>
+        <v>1.502633358878033</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.663952423682626</v>
@@ -13832,7 +13832,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.544264112155296</v>
+        <v>1.505178347935469</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.668811446922066</v>
@@ -13921,7 +13921,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544925048033586</v>
+        <v>1.504204903018891</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.665413492950776</v>
@@ -14010,7 +14010,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.538300533776692</v>
+        <v>1.49481022938535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.541367544374591</v>
@@ -14099,7 +14099,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54436506693921</v>
+        <v>1.502442008318959</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.647902803795676</v>
@@ -14188,7 +14188,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.550026585602879</v>
+        <v>1.501794933145637</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.665788852841628</v>
@@ -14277,7 +14277,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560178969091697</v>
+        <v>1.511275067939218</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.63055821683228</v>
@@ -14366,7 +14366,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.59013557519584</v>
+        <v>1.537543512548679</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.395334870375388</v>
@@ -14455,7 +14455,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599001130259566</v>
+        <v>1.543567664059132</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.127364529019406</v>
@@ -14544,7 +14544,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591969267593212</v>
+        <v>1.53297893132836</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.316395742722233</v>
@@ -14633,7 +14633,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591172028423698</v>
+        <v>1.530808066738077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.310012807580188</v>
@@ -14722,7 +14722,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579163759304227</v>
+        <v>1.520028751807583</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.339291383263521</v>
@@ -14811,7 +14811,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581937490321126</v>
+        <v>1.524416385451526</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.333740729053408</v>
@@ -14900,7 +14900,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58298226778215</v>
+        <v>1.5301134492217</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.118337419879607</v>
@@ -14989,7 +14989,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.598099328636631</v>
+        <v>1.543324594459122</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.866050771288681</v>
@@ -15275,7 +15275,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.489662261284768</v>
+        <v>1.478492739816592</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.517757947786389</v>
@@ -15364,7 +15364,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491515823418605</v>
+        <v>1.481027107296937</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.529248710000413</v>
@@ -15453,7 +15453,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461002144778283</v>
+        <v>1.453459123288561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.454201866693533</v>
@@ -15542,7 +15542,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.453112842532682</v>
+        <v>1.446380288373372</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.36283952773841</v>
@@ -15631,7 +15631,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.475555556501857</v>
+        <v>1.459371184861054</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.477055278564281</v>
@@ -15720,7 +15720,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.480842548692098</v>
+        <v>1.455151648325045</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.205474113706933</v>
@@ -15809,7 +15809,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.467319251073506</v>
+        <v>1.43990700409511</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.327032415006582</v>
@@ -15898,7 +15898,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474786011349457</v>
+        <v>1.444804436508766</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.327028344308837</v>
@@ -15987,7 +15987,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.464749149468991</v>
+        <v>1.434847551220605</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.394274020481903</v>
@@ -16076,7 +16076,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.471551697519456</v>
+        <v>1.44300552627611</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.340573891836296</v>
@@ -16165,7 +16165,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446862378555247</v>
+        <v>1.425304928169596</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.267703511142557</v>
@@ -16254,7 +16254,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.438107702923867</v>
+        <v>1.422028532605347</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420070954211097</v>
@@ -16343,7 +16343,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.431493794831288</v>
+        <v>1.413111752000393</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.243261538727314</v>
@@ -16432,7 +16432,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.420230661944625</v>
+        <v>1.398884557982723</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.346119434233498</v>
@@ -16521,7 +16521,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402809163492898</v>
+        <v>1.382445330193157</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.140393103732227</v>
@@ -16610,7 +16610,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.408850736268723</v>
+        <v>1.386795356713806</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.240686516745624</v>
@@ -16699,7 +16699,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.403379105930022</v>
+        <v>1.377651093345722</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.228388373678114</v>
@@ -16788,7 +16788,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.409323503841369</v>
+        <v>1.381497622095465</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.227653775874053</v>
@@ -16877,7 +16877,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.399346544953037</v>
+        <v>1.371782559838455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.255344888114566</v>
@@ -16966,7 +16966,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.366427443081239</v>
+        <v>1.351912818027081</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.256746708548658</v>
@@ -17055,7 +17055,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.34858775366931</v>
+        <v>1.32864061721614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.2566773438821</v>
@@ -17144,7 +17144,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.342923526413602</v>
+        <v>1.327973399838263</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.271144199438185</v>
@@ -17233,7 +17233,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.332602768400651</v>
+        <v>1.32049254615919</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.176867552337805</v>
@@ -17322,7 +17322,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.33686857767479</v>
+        <v>1.323833013291222</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.206753864734971</v>
@@ -17411,7 +17411,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.320962369634081</v>
+        <v>1.307264888899987</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.173610155245753</v>
@@ -17500,7 +17500,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.335240303694797</v>
+        <v>1.321252157652019</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.141380541974065</v>
@@ -17589,7 +17589,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.33639183006367</v>
+        <v>1.315560399872071</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.246857545441514</v>
@@ -17678,7 +17678,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.338404821413167</v>
+        <v>1.317240156439879</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.219695515242343</v>
@@ -17767,7 +17767,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.339218199916598</v>
+        <v>1.314240761633324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.35330902050388</v>
@@ -17856,7 +17856,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.366901412749693</v>
+        <v>1.328787201053431</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.15357511863506</v>
@@ -17945,7 +17945,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.338529397914867</v>
+        <v>1.309737576996394</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.216534828571648</v>
@@ -18034,7 +18034,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.348789004693793</v>
+        <v>1.325679393532094</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.275642023671064</v>
@@ -18123,7 +18123,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.365260143546751</v>
+        <v>1.344574163862444</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.326164189128184</v>
@@ -18212,7 +18212,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.393995738198672</v>
+        <v>1.370942497452928</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.226284394000737</v>
@@ -18301,7 +18301,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.388038318488825</v>
+        <v>1.365195179375136</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.316905293488531</v>
@@ -18390,7 +18390,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.420213459312988</v>
+        <v>1.393289186108769</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.151714269250248</v>
@@ -18479,7 +18479,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.437680342505613</v>
+        <v>1.407565685255348</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.379160382088938</v>
@@ -18568,7 +18568,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.439474661807655</v>
+        <v>1.412479846816549</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.330001165209997</v>
@@ -18657,7 +18657,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.44512143464112</v>
+        <v>1.416280615337364</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.241751959423489</v>
@@ -18746,7 +18746,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.479465751755251</v>
+        <v>1.44604519153689</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.155267720365254</v>
@@ -18835,7 +18835,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.477087761678236</v>
+        <v>1.439928507728911</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.428394148822518</v>
@@ -18924,7 +18924,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.48097951642116</v>
+        <v>1.451039868918587</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.278129021251792</v>
@@ -19210,7 +19210,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.579198469381505</v>
+        <v>1.570200749890501</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.934887100543392</v>
@@ -19299,7 +19299,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.576271711922849</v>
+        <v>1.563593357425211</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.667146532490124</v>
@@ -19388,7 +19388,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.558858597598456</v>
+        <v>1.537752219773117</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.870027727585689</v>
@@ -19477,7 +19477,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55182041621724</v>
+        <v>1.522010077353323</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.902147773029672</v>
@@ -19566,7 +19566,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556994887111229</v>
+        <v>1.523680979345366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.733700821163614</v>
@@ -19655,7 +19655,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537785843319284</v>
+        <v>1.508335324451278</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.857547674728895</v>
@@ -19744,7 +19744,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527621999245492</v>
+        <v>1.498435384586566</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.963925484864636</v>
@@ -19833,7 +19833,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.521511235942607</v>
+        <v>1.487042230596516</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.566771894924932</v>
@@ -19922,7 +19922,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.493263921809307</v>
+        <v>1.466947275378637</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.775579195784504</v>
@@ -20011,7 +20011,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.480175125646952</v>
+        <v>1.44918235431058</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.671680055665413</v>
@@ -20100,7 +20100,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.475811402470253</v>
+        <v>1.445034911484544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.705214923054193</v>
@@ -20189,7 +20189,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475418579221925</v>
+        <v>1.441808236813721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.807929176953027</v>
@@ -20278,7 +20278,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.48696027787559</v>
+        <v>1.45350086275873</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.765773374155863</v>
@@ -20367,7 +20367,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.486876495674977</v>
+        <v>1.452510629910346</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.635598815323549</v>
@@ -20456,7 +20456,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491748887131431</v>
+        <v>1.45295692004379</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.363888059207156</v>
@@ -20545,7 +20545,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.488772920479683</v>
+        <v>1.4479830903164</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.555693054283054</v>
@@ -20634,7 +20634,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.509007901175991</v>
+        <v>1.468846184817569</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.580206091908509</v>
@@ -20723,7 +20723,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.499544967848643</v>
+        <v>1.458011944734994</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.650806315242996</v>
@@ -20812,7 +20812,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.499318224551235</v>
+        <v>1.458008801547959</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.450645079170018</v>
@@ -20901,7 +20901,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.499470679150375</v>
+        <v>1.465272669116819</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.407542521549509</v>
@@ -20990,7 +20990,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50885116054199</v>
+        <v>1.468426725922062</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.656233688188373</v>
@@ -21079,7 +21079,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.515243494902043</v>
+        <v>1.474822744121951</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.637140630306316</v>
@@ -21168,7 +21168,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.537481850957776</v>
+        <v>1.492610749077885</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.262272794133172</v>
@@ -21257,7 +21257,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.550216522537349</v>
+        <v>1.505038322999094</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.555685640127369</v>
@@ -21346,7 +21346,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559608163648701</v>
+        <v>1.519854375035173</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.678303873961318</v>
@@ -21435,7 +21435,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.565256403127748</v>
+        <v>1.525663079080283</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.942393688972964</v>
@@ -21524,7 +21524,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561103874654443</v>
+        <v>1.522009140742902</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.730285220690174</v>
@@ -21613,7 +21613,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571577129245846</v>
+        <v>1.534629276429904</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.984650387105879</v>
@@ -21702,7 +21702,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571412694821059</v>
+        <v>1.532694554465317</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.807670032011839</v>
@@ -21791,7 +21791,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571897175174845</v>
+        <v>1.531148629376059</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.904916142945207</v>
@@ -21880,7 +21880,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.566891117479681</v>
+        <v>1.522244904535938</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.032388100383865</v>
@@ -21969,7 +21969,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.561280916500674</v>
+        <v>1.520933842612031</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.061946546062451</v>
@@ -22058,7 +22058,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.5870183223513</v>
+        <v>1.552606167129146</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.024401102243782</v>
@@ -22147,7 +22147,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603851224943706</v>
+        <v>1.571860464421153</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.267455988561752</v>
@@ -22236,7 +22236,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586671609114808</v>
+        <v>1.556152155025621</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.066101637758404</v>
@@ -22325,7 +22325,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599323581343181</v>
+        <v>1.564663558506829</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.90938003743133</v>
@@ -22414,7 +22414,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596880672872787</v>
+        <v>1.561845270481588</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.832660473530451</v>
@@ -22503,7 +22503,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594363001959453</v>
+        <v>1.562535779806476</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.852862262474938</v>
@@ -22592,7 +22592,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.596205130729208</v>
+        <v>1.567535536284712</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.775867492801171</v>
@@ -22681,7 +22681,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610245161642828</v>
+        <v>1.575406221603924</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.685361458834724</v>
@@ -22770,7 +22770,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626590388917682</v>
+        <v>1.591157038226326</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.043281086068716</v>
@@ -22859,7 +22859,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.626199029748832</v>
+        <v>1.585279925110585</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.961612080986759</v>
@@ -23145,7 +23145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398140337472843</v>
+        <v>1.379270991341176</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.161169763214949</v>
@@ -23234,7 +23234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.408596594609355</v>
+        <v>1.387689805791707</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.115526596021859</v>
@@ -23323,7 +23323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408205640461178</v>
+        <v>1.387856232147267</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.088093479489871</v>
@@ -23412,7 +23412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.414073322620401</v>
+        <v>1.389073452698971</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.055886280182899</v>
@@ -23501,7 +23501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430316443106292</v>
+        <v>1.403410274216737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.087935758942253</v>
@@ -23590,7 +23590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.414799066317242</v>
+        <v>1.389868973293235</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.19745220776712</v>
@@ -23679,7 +23679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.391187602574945</v>
+        <v>1.364539750814125</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.126872270713699</v>
@@ -23768,7 +23768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381077372884204</v>
+        <v>1.347896165639265</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.201058467347256</v>
@@ -23857,7 +23857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.339756905197197</v>
+        <v>1.318016070011858</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.256505265971682</v>
@@ -23946,7 +23946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.326822524261622</v>
+        <v>1.305519784253345</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.178007865236606</v>
@@ -24035,7 +24035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.321524927657351</v>
+        <v>1.297478782774107</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.273173916145757</v>
@@ -24124,7 +24124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.327631475706883</v>
+        <v>1.304363352824279</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.262714686258002</v>
@@ -24213,7 +24213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.331470959595028</v>
+        <v>1.309113328940659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.443214055643561</v>
@@ -24302,7 +24302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.32978811328403</v>
+        <v>1.307634856966796</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.30300218330748</v>
@@ -24391,7 +24391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.337671728642407</v>
+        <v>1.316879476570951</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.186297351843386</v>
@@ -24480,7 +24480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33337131885275</v>
+        <v>1.313801547901195</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.220013847176426</v>
@@ -24569,7 +24569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.342649904047906</v>
+        <v>1.326934404332831</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.243184913125096</v>
@@ -24658,7 +24658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.330853364056872</v>
+        <v>1.314497987545728</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.198719188456642</v>
@@ -24747,7 +24747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.330186056077899</v>
+        <v>1.310554065323436</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.142907977220232</v>
@@ -24836,7 +24836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.323602120173914</v>
+        <v>1.309958616938355</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.176531824617553</v>
@@ -24925,7 +24925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.335192316533512</v>
+        <v>1.316564206370206</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.262871628732986</v>
@@ -25014,7 +25014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.328998857122122</v>
+        <v>1.313350664692613</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.406257455872944</v>
@@ -25103,7 +25103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.336655121600978</v>
+        <v>1.318190115152991</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.999759090014785</v>
@@ -25192,7 +25192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.349333362480483</v>
+        <v>1.331113474442234</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.20532974308042</v>
@@ -25281,7 +25281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.363455764452665</v>
+        <v>1.345131958617947</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.252047738040386</v>
@@ -25370,7 +25370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.361711232903514</v>
+        <v>1.349260223794395</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.237034029006607</v>
@@ -25459,7 +25459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.363510011714716</v>
+        <v>1.35166359531347</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.180877553575549</v>
@@ -25548,7 +25548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.395535821606601</v>
+        <v>1.382721188626733</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.296406916538381</v>
@@ -25637,7 +25637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.398207684890866</v>
+        <v>1.376176580586787</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.470553430041908</v>
@@ -25726,7 +25726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390632979891506</v>
+        <v>1.373605054507307</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.364617885897763</v>
@@ -25815,7 +25815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391984378077114</v>
+        <v>1.364306751075484</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.362122349716628</v>
@@ -25904,7 +25904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.372139660475294</v>
+        <v>1.343826720722268</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.471762806912181</v>
@@ -25993,7 +25993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.359677792711905</v>
+        <v>1.333886605326523</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.518331401432267</v>
@@ -26082,7 +26082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.361611923273677</v>
+        <v>1.338484791396929</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.413285382295538</v>
@@ -26171,7 +26171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.355541599693894</v>
+        <v>1.330437226852108</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.447390400722388</v>
@@ -26260,7 +26260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.370043257216495</v>
+        <v>1.34250404840932</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.435616077882653</v>
@@ -26349,7 +26349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.393523077176336</v>
+        <v>1.360823911247167</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.316823096533081</v>
@@ -26438,7 +26438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.405195574783971</v>
+        <v>1.370165477793571</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.328829997925693</v>
@@ -26527,7 +26527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.416496592802229</v>
+        <v>1.381776965591795</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.351721436019079</v>
@@ -26616,7 +26616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.423525655090208</v>
+        <v>1.383586030377025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.461928902119053</v>
@@ -26705,7 +26705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.446072755729641</v>
+        <v>1.405170032918199</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.405887595279036</v>
@@ -26794,7 +26794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.441273439946041</v>
+        <v>1.394879233216514</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.498564307800733</v>
